--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.246614615238951</v>
+        <v>19.952791</v>
       </c>
       <c r="H2">
-        <v>8.246614615238951</v>
+        <v>59.858373</v>
       </c>
       <c r="I2">
-        <v>0.5808649254359776</v>
+        <v>0.6991080337323071</v>
       </c>
       <c r="J2">
-        <v>0.5808649254359776</v>
+        <v>0.6991080337323072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N2">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q2">
-        <v>16.2751404015008</v>
+        <v>45.90956303794933</v>
       </c>
       <c r="R2">
-        <v>16.2751404015008</v>
+        <v>413.186067341544</v>
       </c>
       <c r="S2">
-        <v>0.01928948441752808</v>
+        <v>0.0264051681200209</v>
       </c>
       <c r="T2">
-        <v>0.01928948441752808</v>
+        <v>0.0264051681200209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.246614615238951</v>
+        <v>19.952791</v>
       </c>
       <c r="H3">
-        <v>8.246614615238951</v>
+        <v>59.858373</v>
       </c>
       <c r="I3">
-        <v>0.5808649254359776</v>
+        <v>0.6991080337323071</v>
       </c>
       <c r="J3">
-        <v>0.5808649254359776</v>
+        <v>0.6991080337323072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N3">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q3">
-        <v>139.4995735381949</v>
+        <v>338.4616213225717</v>
       </c>
       <c r="R3">
-        <v>139.4995735381949</v>
+        <v>3046.154591903145</v>
       </c>
       <c r="S3">
-        <v>0.1653365060843769</v>
+        <v>0.1946682874286959</v>
       </c>
       <c r="T3">
-        <v>0.1653365060843769</v>
+        <v>0.1946682874286959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.246614615238951</v>
+        <v>19.952791</v>
       </c>
       <c r="H4">
-        <v>8.246614615238951</v>
+        <v>59.858373</v>
       </c>
       <c r="I4">
-        <v>0.5808649254359776</v>
+        <v>0.6991080337323071</v>
       </c>
       <c r="J4">
-        <v>0.5808649254359776</v>
+        <v>0.6991080337323072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N4">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q4">
-        <v>334.3191636959046</v>
+        <v>831.138756689033</v>
       </c>
       <c r="R4">
-        <v>334.3191636959046</v>
+        <v>7480.248810201297</v>
       </c>
       <c r="S4">
-        <v>0.3962389349340726</v>
+        <v>0.4780345781835904</v>
       </c>
       <c r="T4">
-        <v>0.3962389349340726</v>
+        <v>0.4780345781835904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.34145748749408</v>
+        <v>3.140511</v>
       </c>
       <c r="H5">
-        <v>2.34145748749408</v>
+        <v>9.421533</v>
       </c>
       <c r="I5">
-        <v>0.1649247106044558</v>
+        <v>0.1100375616686749</v>
       </c>
       <c r="J5">
-        <v>0.1649247106044558</v>
+        <v>0.1100375616686749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N5">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q5">
-        <v>4.620993114276537</v>
+        <v>7.226031071336</v>
       </c>
       <c r="R5">
-        <v>4.620993114276537</v>
+        <v>65.034279642024</v>
       </c>
       <c r="S5">
-        <v>0.005476854421675045</v>
+        <v>0.004156096304410493</v>
       </c>
       <c r="T5">
-        <v>0.005476854421675045</v>
+        <v>0.004156096304410494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.34145748749408</v>
+        <v>3.140511</v>
       </c>
       <c r="H6">
-        <v>2.34145748749408</v>
+        <v>9.421533</v>
       </c>
       <c r="I6">
-        <v>0.1649247106044558</v>
+        <v>0.1100375616686749</v>
       </c>
       <c r="J6">
-        <v>0.1649247106044558</v>
+        <v>0.1100375616686749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N6">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q6">
-        <v>39.60804963040864</v>
+        <v>53.272870188505</v>
       </c>
       <c r="R6">
-        <v>39.60804963040864</v>
+        <v>479.455831696545</v>
       </c>
       <c r="S6">
-        <v>0.04694391798205273</v>
+        <v>0.0306402196074214</v>
       </c>
       <c r="T6">
-        <v>0.04694391798205273</v>
+        <v>0.0306402196074214</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.34145748749408</v>
+        <v>3.140511</v>
       </c>
       <c r="H7">
-        <v>2.34145748749408</v>
+        <v>9.421533</v>
       </c>
       <c r="I7">
-        <v>0.1649247106044558</v>
+        <v>0.1100375616686749</v>
       </c>
       <c r="J7">
-        <v>0.1649247106044558</v>
+        <v>0.1100375616686749</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N7">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q7">
-        <v>94.92308608698733</v>
+        <v>130.818811659393</v>
       </c>
       <c r="R7">
-        <v>94.92308608698733</v>
+        <v>1177.369304934537</v>
       </c>
       <c r="S7">
-        <v>0.1125039382007281</v>
+        <v>0.07524124575684302</v>
       </c>
       <c r="T7">
-        <v>0.1125039382007281</v>
+        <v>0.07524124575684303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.60905747786494</v>
+        <v>5.447052333333334</v>
       </c>
       <c r="H8">
-        <v>3.60905747786494</v>
+        <v>16.341157</v>
       </c>
       <c r="I8">
-        <v>0.2542103639595666</v>
+        <v>0.1908544045990179</v>
       </c>
       <c r="J8">
-        <v>0.2542103639595666</v>
+        <v>0.1908544045990179</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N8">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q8">
-        <v>7.122670321078934</v>
+        <v>12.53317355292178</v>
       </c>
       <c r="R8">
-        <v>7.122670321078934</v>
+        <v>112.798561976296</v>
       </c>
       <c r="S8">
-        <v>0.008441871147051505</v>
+        <v>0.007208532010394877</v>
       </c>
       <c r="T8">
-        <v>0.008441871147051505</v>
+        <v>0.007208532010394877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.60905747786494</v>
+        <v>5.447052333333334</v>
       </c>
       <c r="H9">
-        <v>3.60905747786494</v>
+        <v>16.341157</v>
       </c>
       <c r="I9">
-        <v>0.2542103639595666</v>
+        <v>0.1908544045990179</v>
       </c>
       <c r="J9">
-        <v>0.2542103639595666</v>
+        <v>0.1908544045990179</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N9">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q9">
-        <v>61.05074658231794</v>
+        <v>92.3990114550339</v>
       </c>
       <c r="R9">
-        <v>61.05074658231794</v>
+        <v>831.5911030953051</v>
       </c>
       <c r="S9">
-        <v>0.07235805011976934</v>
+        <v>0.05314386088966111</v>
       </c>
       <c r="T9">
-        <v>0.07235805011976934</v>
+        <v>0.05314386088966112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.60905747786494</v>
+        <v>5.447052333333334</v>
       </c>
       <c r="H10">
-        <v>3.60905747786494</v>
+        <v>16.341157</v>
       </c>
       <c r="I10">
-        <v>0.2542103639595666</v>
+        <v>0.1908544045990179</v>
       </c>
       <c r="J10">
-        <v>0.2542103639595666</v>
+        <v>0.1908544045990179</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N10">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q10">
-        <v>146.3118059986238</v>
+        <v>226.8983975197637</v>
       </c>
       <c r="R10">
-        <v>146.3118059986238</v>
+        <v>2042.085577677873</v>
       </c>
       <c r="S10">
-        <v>0.1734104426927458</v>
+        <v>0.1305020116989619</v>
       </c>
       <c r="T10">
-        <v>0.1734104426927458</v>
+        <v>0.1305020116989619</v>
       </c>
     </row>
   </sheetData>
